--- a/Excel/unit_info.xlsx
+++ b/Excel/unit_info.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,99 +209,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来自刀塔的剑圣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui://GameUI/蓝猫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来自刀塔的蓝猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自刀塔的毒龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月骑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来自刀塔的月骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自刀塔的斧王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来自刀塔的火枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幽鬼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来自刀塔的幽鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自刀塔的影魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自刀塔的帕克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>风行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来自刀塔的风行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自刀塔的小小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小娜迦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来自刀塔的小娜迦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自刀塔的血魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自刀塔的熊战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自刀塔的混沌骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自刀塔的虚空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自刀塔的小黑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -741,14 +673,14 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="39.125" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="36.125" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="20.125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
@@ -806,9 +738,6 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
       <c r="E4" t="s">
         <v>39</v>
       </c>
@@ -816,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -835,22 +764,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -863,9 +789,6 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
       <c r="E7" t="s">
         <v>39</v>
       </c>
@@ -873,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -886,9 +809,6 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
       <c r="E8" t="s">
         <v>39</v>
       </c>
@@ -896,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -909,9 +829,6 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
       <c r="E9" t="s">
         <v>39</v>
       </c>
@@ -919,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -932,9 +849,6 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" t="s">
         <v>39</v>
       </c>
@@ -942,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -950,14 +864,11 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
       <c r="E11" t="s">
         <v>39</v>
       </c>
@@ -965,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -978,9 +889,6 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
       <c r="E12" t="s">
         <v>39</v>
       </c>
@@ -988,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -996,22 +904,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1024,17 +929,14 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1047,17 +949,14 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1065,22 +964,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
       <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
         <v>64</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1088,22 +984,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1116,9 +1009,6 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
       <c r="E18" t="s">
         <v>39</v>
       </c>
@@ -1126,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1134,22 +1024,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1162,17 +1049,14 @@
       <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1183,19 +1067,16 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1242,6 +1123,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/unit_info.xlsx
+++ b/Excel/unit_info.xlsx
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑圣治疗棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HeroName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,236 +72,240 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑圣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虚空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>混沌骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙</t>
+    <t>瘟疫法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战boss1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/剑圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/虚空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/混沌骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/血魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/娜迦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/帕克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/影魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/火枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/斧王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/月骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/毒龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_Range</t>
+  </si>
+  <si>
+    <t>AttributePrimary</t>
+  </si>
+  <si>
+    <t>Skills_ID</t>
+  </si>
+  <si>
+    <t>近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/蓝猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6,8,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,18,19,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,22,23,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,26,27,28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,30,31,32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,34,35,36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,39,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,47,48,49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,56,57,58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59,60,61,62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67,68,69,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71,72,73,74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41,43,44,45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,51,52,53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀圣治疗棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/拍拍熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍拍熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血狂魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山岭人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑魔王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽暗之鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斧之王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月之骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒鸟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蓝猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战boss1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/剑圣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/小黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/虚空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/混沌骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/拍拍熊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/血魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/娜迦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/小小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/风行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/帕克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/影魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/幽鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/火枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/斧王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/月骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/毒龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack_Range</t>
-  </si>
-  <si>
-    <t>AttributePrimary</t>
-  </si>
-  <si>
-    <t>Skills_ID</t>
-  </si>
-  <si>
-    <t>近战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/蓝猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,6,8,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,14,15,16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,18,19,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,22,23,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,26,27,28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29,30,31,32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33,34,35,36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,39,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46,47,48,49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,56,57,58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59,60,61,62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67,68,69,70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71,72,73,74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41,43,44,45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,51,52,53</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +673,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -733,19 +733,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -764,19 +764,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -804,19 +804,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -824,19 +824,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -864,19 +864,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -884,19 +884,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -904,19 +904,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -924,19 +924,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -964,19 +964,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -984,19 +984,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1004,19 +1004,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1024,19 +1024,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1044,19 +1044,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1064,19 +1064,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1084,7 +1084,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -1095,7 +1095,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1114,7 +1114,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>1</v>

--- a/Excel/unit_info.xlsx
+++ b/Excel/unit_info.xlsx
@@ -177,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,6,8,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9,10,11,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,6 +302,10 @@
   </si>
   <si>
     <t>蓝猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,193,8,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +673,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -745,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -764,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -804,7 +804,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -824,10 +824,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -836,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -844,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -856,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -884,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -904,7 +904,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -924,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -936,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -964,7 +964,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -976,7 +976,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -996,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1004,7 +1004,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1024,7 +1024,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1036,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1044,7 +1044,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -1056,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1064,7 +1064,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1076,7 +1076,7 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">

--- a/Excel/unit_info.xlsx
+++ b/Excel/unit_info.xlsx
@@ -193,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25,26,27,28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>29,30,31,32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50,51,52,53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刀圣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,6 +298,14 @@
   </si>
   <si>
     <t>5,193,8,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,51,52,197</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,26,196,28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -745,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -764,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -804,7 +804,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -824,10 +824,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -844,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -856,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -884,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -904,7 +904,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -924,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -936,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -964,7 +964,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -976,7 +976,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -996,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1004,7 +1004,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1024,7 +1024,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1036,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1044,7 +1044,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -1056,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1064,7 +1064,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1076,7 +1076,7 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
